--- a/docss/trend/spain/E_huntington.xlsx
+++ b/docss/trend/spain/E_huntington.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej6_Huntington_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej6_Huntington" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12809,7 +12809,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12833,13 +12833,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.10886241613409546</v>
+        <v>0.109</v>
       </c>
       <c r="C2">
-        <v>0.12196127255926141</v>
+        <v>0.122</v>
       </c>
       <c r="D2">
-        <v>9.5651259863698365E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12847,13 +12847,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.11046601781179104</v>
+        <v>0.11</v>
       </c>
       <c r="C3">
-        <v>0.10328174049975487</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D3">
-        <v>0.11489537702942852</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12861,13 +12861,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0.12071810239550963</v>
+        <v>0.121</v>
       </c>
       <c r="C4">
-        <v>0.12735031188214532</v>
+        <v>0.127</v>
       </c>
       <c r="D4">
-        <v>0.11249989274935555</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12875,13 +12875,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0.12861146116569092</v>
+        <v>0.129</v>
       </c>
       <c r="C5">
-        <v>0.17398816894590782</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D5">
-        <v>8.4896929550489636E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12889,13 +12889,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0.13041174238155978</v>
+        <v>0.13</v>
       </c>
       <c r="C6">
-        <v>0.11555741787136993</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D6">
-        <v>0.14177274799669992</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12903,13 +12903,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.13879762708643187</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="C7">
-        <v>0.16026858573874914</v>
+        <v>0.16</v>
       </c>
       <c r="D7">
-        <v>0.1171657394078197</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12917,13 +12917,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>0.14626688511935534</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="C8">
-        <v>0.16698462324228522</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D8">
-        <v>0.12258671529418573</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12931,13 +12931,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>0.1551366268785131</v>
+        <v>0.155</v>
       </c>
       <c r="C9">
-        <v>0.16008756597905888</v>
+        <v>0.16</v>
       </c>
       <c r="D9">
-        <v>0.15054536933322019</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12945,13 +12945,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0.13318662369548209</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="C10">
-        <v>0.16954890595267236</v>
+        <v>0.17</v>
       </c>
       <c r="D10">
-        <v>9.998863303588261E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12959,13 +12959,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.12987087641690251</v>
+        <v>0.13</v>
       </c>
       <c r="C11">
-        <v>0.10956549307217993</v>
+        <v>0.11</v>
       </c>
       <c r="D11">
-        <v>0.1512970096768303</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12973,13 +12973,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.13548257096045022</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C12">
-        <v>0.16098102897552716</v>
+        <v>0.161</v>
       </c>
       <c r="D12">
-        <v>0.10938539069665659</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12987,13 +12987,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.15670499745754474</v>
+        <v>0.157</v>
       </c>
       <c r="C13">
-        <v>0.15247045651374436</v>
+        <v>0.152</v>
       </c>
       <c r="D13">
-        <v>0.1589783424250639</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13001,13 +13001,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0.17914325661668329</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="C14">
-        <v>0.19515717104130575</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D14">
-        <v>0.16123381657075805</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13015,13 +13015,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.1688508898561249</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="C15">
-        <v>0.21585735596881475</v>
+        <v>0.216</v>
       </c>
       <c r="D15">
-        <v>0.1285575545581541</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13029,13 +13029,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.1430913938436271</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="C16">
-        <v>0.15613857892439129</v>
+        <v>0.156</v>
       </c>
       <c r="D16">
-        <v>0.13442809294481869</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
   </sheetData>
